--- a/data/trans_bre/IP08-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP08-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 4,34</t>
+          <t>-11,32; 3,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 9,07</t>
+          <t>-7,62; 8,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 10,63</t>
+          <t>-2,67; 11,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,99; 11,14</t>
+          <t>-16,7; 9,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-67,87; 62,39</t>
+          <t>-69,99; 50,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,42; 102,89</t>
+          <t>-46,81; 114,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-57,98; 671,8</t>
+          <t>-56,87; 770,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-74,95; 137,32</t>
+          <t>-79,83; 95,28</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,11; -0,88</t>
+          <t>-6,93; -0,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 1,34</t>
+          <t>-5,87; 1,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 1,59</t>
+          <t>-3,9; 1,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 0,3</t>
+          <t>-7,85; -0,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-55,36; -8,22</t>
+          <t>-54,27; -5,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-35,28; 11,37</t>
+          <t>-36,87; 14,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-40,52; 25,37</t>
+          <t>-42,66; 27,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-54,43; 4,47</t>
+          <t>-52,14; 1,05</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 3,32</t>
+          <t>-8,1; 3,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 2,66</t>
+          <t>-8,14; 2,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 5,62</t>
+          <t>-2,23; 5,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 5,62</t>
+          <t>-7,02; 5,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,2; 39,49</t>
+          <t>-51,79; 39,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,9; 30,82</t>
+          <t>-55,4; 30,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-39,63; 155,44</t>
+          <t>-32,73; 163,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-45,38; 66,77</t>
+          <t>-45,7; 69,3</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,94; -0,43</t>
+          <t>-5,86; -0,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 0,72</t>
+          <t>-4,95; 1,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 2,17</t>
+          <t>-2,54; 2,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 0,17</t>
+          <t>-6,35; 0,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-46,37; -4,11</t>
+          <t>-45,35; -8,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-32,44; 6,07</t>
+          <t>-33,06; 8,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-28,14; 38,6</t>
+          <t>-30,65; 35,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-43,78; 1,45</t>
+          <t>-43,14; 0,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP08-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP08-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que han sufrido alguna dolencia o enfermedad continuada</t>
+          <t>Menores que sufrieron alguna dolencia, enfermedad o impedimento que le ha limitado de forma continuada (más de 10 días en los últimos 12 meses)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,93%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,44%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,46%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,7; 3,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,4; 8,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 10,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,71; 27,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,43; 49,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,54; 104,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,32; 747,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,74; 277,96</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,33</t>
+          <t>-3,88</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,7</t>
+          <t>-4,61</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-27,93%</t>
+          <t>-34,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>-14,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>85,44%</t>
+          <t>-15,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-28,23%</t>
+          <t>-36,03%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 3,22</t>
+          <t>-7,05; -1,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 8,94</t>
+          <t>-6,12; 1,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 11,26</t>
+          <t>-3,74; 1,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 9,46</t>
+          <t>-11,83; -0,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-69,99; 50,42</t>
+          <t>-54,01; -9,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,81; 114,05</t>
+          <t>-37,67; 12,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-56,87; 770,47</t>
+          <t>-40,64; 26,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-79,83; 95,28</t>
+          <t>-61,71; -5,52</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,88</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,56</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-34,54%</t>
+          <t>-17,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-14,75%</t>
+          <t>-22,8%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-15,29%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-29,64%</t>
+          <t>-8,79%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,93; -0,61</t>
+          <t>-8,33; 3,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 1,83</t>
+          <t>-8,09; 2,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 1,72</t>
+          <t>-2,94; 5,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,85; -0,12</t>
+          <t>-7,23; 5,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-54,27; -5,82</t>
+          <t>-51,97; 40,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,87; 14,3</t>
+          <t>-53,93; 32,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-42,66; 27,19</t>
+          <t>-41,24; 141,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-52,14; 1,05</t>
+          <t>-47,44; 56,64</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>-3,31</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-3,45</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-17,48%</t>
+          <t>-28,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-22,8%</t>
+          <t>-14,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,13%</t>
+          <t>-2,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-7,07%</t>
+          <t>-26,49%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 3,67</t>
+          <t>-5,92; -0,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 2,77</t>
+          <t>-4,87; 0,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 5,89</t>
+          <t>-2,54; 1,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 5,99</t>
+          <t>-7,95; 0,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,79; 39,44</t>
+          <t>-45,54; -6,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,4; 30,85</t>
+          <t>-32,22; 6,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,73; 163,77</t>
+          <t>-31,63; 33,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-45,7; 69,3</t>
+          <t>-48,9; 2,9</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-3,3</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,93</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-3,05</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-28,57%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-14,21%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-2,17%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-24,61%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-5,86; -0,87</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,95; 1,07</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,54; 2,1</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-6,35; 0,04</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-45,35; -8,06</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-33,06; 8,51</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-30,65; 35,15</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-43,14; 0,74</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
